--- a/VoidWanderers.rte/Tools/PlanetCoords.xlsx
+++ b/VoidWanderers.rte/Tools/PlanetCoords.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105\VoidWanderers.rte\Extensions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="20235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Ketanot Hills</t>
   </si>
@@ -84,6 +79,9 @@
   </si>
   <si>
     <t>Small planet</t>
+  </si>
+  <si>
+    <t>Grasslands Mining Outpost</t>
   </si>
 </sst>
 </file>
@@ -183,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +473,7 @@
         <v>82</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:E13" si="0">B3*$I$1</f>
+        <f t="shared" ref="D3:E14" si="0">B3*$I$1</f>
         <v>31.102040816326529</v>
       </c>
       <c r="E3" s="1">
@@ -677,6 +675,25 @@
       <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>19.438775510204081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <v>-10</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>15.03265306122449</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5918367346938775</v>
       </c>
     </row>
   </sheetData>
